--- a/testdata/logindata.xlsx
+++ b/testdata/logindata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3D33D6BC-77B9-46E7-9E3C-7F95D75C6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E558E4F6-A409-4A04-BE91-E6B7CF7A025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CAAA0672-7FC0-4B22-8C0C-AC8D1F7002E2}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>valid</t>
   </si>
   <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
     <t>messi@gmail.com</t>
   </si>
   <si>
@@ -62,13 +59,16 @@
     <t>test@1234</t>
   </si>
   <si>
-    <t>abcd@123</t>
-  </si>
-  <si>
     <t>remo12@gmail.com</t>
   </si>
   <si>
     <t>test@789</t>
+  </si>
+  <si>
+    <t>ronaldo7@gmail.com</t>
+  </si>
+  <si>
+    <t>loemessi10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -437,12 +437,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
   </cols>
@@ -466,26 +466,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -493,24 +493,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
